--- a/output-2/drone-polysemi/cosine/evaluation_cosine.xlsx
+++ b/output-2/drone-polysemi/cosine/evaluation_cosine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:Z55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,7 +568,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>cnn</t>
+          <t>adatrans</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -578,7 +578,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>scaled</t>
+          <t>unscaled</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -588,7 +588,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -700,12 +700,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>cnn</t>
+          <t>adatrans</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>elmo</t>
+          <t>bert</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -725,107 +725,107 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.912096</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.887427</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.938176</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.971154</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.95283</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.990196</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.705882</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.658537</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.760563</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.926108</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.949495</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.903846</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.939597</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.985915</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.897436</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.9875</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.9875</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.9875</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.876254</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.784431</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.992424</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>glove</t>
+          <t>elmo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -852,129 +852,129 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.858025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.856703</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.859351</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.909091</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.9375</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.882353</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.435484</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.509434</t>
+          <t>-</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.380282</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.852459</t>
+          <t>-</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.987342</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.938776</t>
+          <t>-</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.884615</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0.917647</t>
+          <t>-</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.866667</t>
+          <t>-</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>0.975</t>
+          <t>-</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0.861842</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>0.761628</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>0.992424</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>adatrans</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>elmo</t>
+          <t>glove</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>scaled</t>
+          <t>unscaled</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -989,107 +989,107 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.871875</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.881517</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.862442</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.934673</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.958763</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.911765</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.496124</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.551724</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.450704</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.852459</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.987342</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.938776</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.884615</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.95679</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.945122</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.96875</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.870432</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.775148</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.992424</t>
         </is>
       </c>
     </row>
@@ -1101,12 +1101,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>glove</t>
+          <t>elmo</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>scaled</t>
+          <t>unscaled</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1116,124 +1116,124 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.842508</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.833585</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.851623</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.915423</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.929293</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0.901961</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0.313043</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>0.409091</t>
+          <t>-</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>0.253521</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>0.885417</t>
+          <t>-</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.965909</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0.817308</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.938776</t>
+          <t>-</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>0.884615</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>0.899135</t>
+          <t>-</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>0.834225</t>
+          <t>-</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>0.975</t>
+          <t>-</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>0.856209</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>0.752874</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>0.992424</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>cnn</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>bert</t>
+          <t>glove</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1248,107 +1248,107 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.915789</t>
+          <t>0.858025</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.891654</t>
+          <t>0.856703</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.941267</t>
+          <t>0.859351</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.980769</t>
+          <t>0.909091</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>0.962264</t>
+          <t>0.9375</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
+          <t>0.882353</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>0.435484</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>0.509434</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0.380282</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0.852459</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0.987342</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>0.938776</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>0.705882</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>0.658537</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0.760563</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0.96875</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0.894231</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>0.945946</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>0.897436</t>
+          <t>0.884615</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>0.990654</t>
+          <t>0.917647</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>0.987578</t>
+          <t>0.866667</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>0.99375</t>
+          <t>0.975</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>0.873333</t>
+          <t>0.861842</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>0.779762</t>
+          <t>0.761628</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>glove</t>
+          <t>elmo</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1380,129 +1380,129 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.844275</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.834087</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.854714</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0.959184</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0.921569</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0.313043</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>0.409091</t>
+          <t>-</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>0.253521</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>0.871795</t>
+          <t>-</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.934066</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>0.817308</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>-</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>0.958333</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>0.884615</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>0.883853</t>
+          <t>-</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>0.80829</t>
+          <t>-</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>0.975</t>
+          <t>-</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>0.876254</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>0.784431</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>0.992424</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>cnn</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>elmo</t>
+          <t>glove</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>unscaled</t>
+          <t>scaled</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1512,119 +1512,119 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.842508</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.833585</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.851623</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.915423</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.929293</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.901961</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.313043</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.409091</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.253521</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.885417</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.965909</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.817308</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.938776</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.884615</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.899135</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.834225</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.975</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.856209</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.752874</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.992424</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>cnn</t>
+          <t>lstm</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>unscaled</t>
+          <t>scaled</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1649,42 +1649,42 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.915535</t>
+          <t>0.915789</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.893962</t>
+          <t>0.891654</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.938176</t>
+          <t>0.941267</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.971154</t>
+          <t>0.980769</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0.95283</t>
+          <t>0.962264</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.990196</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.715232</t>
+          <t>0.705882</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0.675</t>
+          <t>0.658537</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1739,12 +1739,12 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>0.876254</t>
+          <t>0.873333</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>0.784431</t>
+          <t>0.779762</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1761,7 +1761,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>bert</t>
+          <t>glove</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1776,97 +1776,97 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.900151</t>
+          <t>0.844275</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.881481</t>
+          <t>0.834087</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.919629</t>
+          <t>0.854714</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.980769</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0.962264</t>
+          <t>0.959184</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.921569</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.643836</t>
+          <t>0.313043</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>0.626667</t>
+          <t>0.409091</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>0.661972</t>
+          <t>0.253521</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>0.847826</t>
+          <t>0.871795</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
+          <t>0.934066</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0.817308</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>0.958333</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>0.884615</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>0.883853</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>0.80829</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
           <t>0.975</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>0.858896</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>0.823529</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>0.897436</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>0.961783</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>0.980519</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>0.94375</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
@@ -1893,12 +1893,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>glove</t>
+          <t>elmo</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>scaled</t>
+          <t>unscaled</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1913,124 +1913,124 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.844749</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.832084</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0.857805</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.910891</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0.901961</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.526316</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>0.564516</t>
+          <t>-</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>0.492958</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>0.835052</t>
+          <t>-</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>0.778846</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>0.938776</t>
+          <t>-</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>0.884615</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>0.942249</t>
+          <t>-</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>0.91716</t>
+          <t>-</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>0.96875</t>
+          <t>-</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>0.870432</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>0.775148</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>0.992424</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>cnn</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>elmo</t>
+          <t>bert</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>scaled</t>
+          <t>unscaled</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2045,107 +2045,107 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.915535</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.893962</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.938176</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.971154</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.95283</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.990196</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.715232</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.675</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.760563</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.96875</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.894231</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.945946</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.897436</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.990654</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.987578</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.99375</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.876254</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.784431</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.992424</t>
         </is>
       </c>
     </row>
@@ -2162,7 +2162,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>unscaled</t>
+          <t>scaled</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2172,77 +2172,77 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.914974</t>
+          <t>0.900151</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.891496</t>
+          <t>0.881481</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0.939722</t>
+          <t>0.919629</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0.975845</t>
+          <t>0.980769</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>0.961905</t>
+          <t>0.962264</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>0.990196</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0.705882</t>
+          <t>0.643836</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>0.658537</t>
+          <t>0.626667</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>0.760563</t>
+          <t>0.661972</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>0.925373</t>
+          <t>0.847826</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>0.958763</t>
+          <t>0.975</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>0.894231</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>0.945946</t>
+          <t>0.858896</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.823529</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
@@ -2252,17 +2252,17 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>0.990654</t>
+          <t>0.961783</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>0.987578</t>
+          <t>0.980519</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>0.99375</t>
+          <t>0.94375</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
@@ -2284,12 +2284,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>cnn</t>
+          <t>lstm</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>elmo</t>
+          <t>glove</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2309,107 +2309,107 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.844749</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.832084</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.857805</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.910891</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.901961</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.526316</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.564516</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.492958</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.835052</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.778846</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.938776</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.884615</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.942249</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.91716</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.96875</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.870432</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.775148</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.992424</t>
         </is>
       </c>
     </row>
@@ -2421,12 +2421,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>glove</t>
+          <t>elmo</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>unscaled</t>
+          <t>scaled</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2441,124 +2441,124 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.843726</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.840491</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0.846986</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0.929293</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>0.958333</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0.901961</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>0.318584</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>0.428571</t>
+          <t>-</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>0.253521</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>0.890052</t>
+          <t>-</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>0.977011</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>0.817308</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>-</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>0.958333</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>0.884615</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>0.893983</t>
+          <t>-</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>0.825397</t>
+          <t>-</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>0.975</t>
+          <t>-</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>0.879195</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>0.789157</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>0.992424</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>cnn</t>
+          <t>adatrans</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>bert</t>
+          <t>glove</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>unscaled</t>
+          <t>scaled</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2568,107 +2568,107 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.913076</t>
+          <t>0.8426</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.893491</t>
+          <t>0.853968</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0.933539</t>
+          <t>0.83153</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0.971154</t>
+          <t>0.89899</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>0.95283</t>
+          <t>0.927083</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0.990196</t>
+          <t>0.872549</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0.717949</t>
+          <t>0.292683</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>0.658824</t>
+          <t>0.346154</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>0.788732</t>
+          <t>0.253521</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>0.860215</t>
+          <t>0.83871</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>0.97561</t>
+          <t>0.95122</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>0.769231</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>0.945946</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.958333</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>0.897436</t>
+          <t>0.884615</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>0.993711</t>
+          <t>0.912913</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.878613</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>0.9875</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>0.876254</t>
+          <t>0.885135</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>0.784431</t>
+          <t>0.79878</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2680,12 +2680,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>cnn</t>
+          <t>lstm</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>glove</t>
+          <t>bert</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2700,72 +2700,72 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.84639</t>
+          <t>0.914974</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.841221</t>
+          <t>0.891496</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0.851623</t>
+          <t>0.939722</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>0.929293</t>
+          <t>0.975845</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>0.958333</t>
+          <t>0.961905</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>0.901961</t>
+          <t>0.990196</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0.310345</t>
+          <t>0.705882</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.658537</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>0.253521</t>
+          <t>0.760563</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>0.890052</t>
+          <t>0.925373</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>0.977011</t>
+          <t>0.958763</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>0.817308</t>
+          <t>0.894231</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>0.938776</t>
+          <t>0.945946</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -2775,32 +2775,32 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>0.884615</t>
+          <t>0.897436</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>0.899135</t>
+          <t>0.990654</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>0.834225</t>
+          <t>0.987578</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>0.975</t>
+          <t>0.99375</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>0.864686</t>
+          <t>0.876254</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>0.766082</t>
+          <t>0.784431</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -2812,7 +2812,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>cnn</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>unscaled</t>
+          <t>scaled</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2832,7 +2832,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -2944,12 +2944,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>cnn</t>
+          <t>lstm</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>elmo</t>
+          <t>glove</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2964,119 +2964,119 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.843726</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.840491</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.846986</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.929293</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.958333</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.901961</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.318584</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.428571</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.253521</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.890052</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.977011</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.817308</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.958333</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.884615</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.893983</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.825397</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.975</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.879195</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.789157</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.992424</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>cnn</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3101,27 +3101,27 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.899924</t>
+          <t>0.913076</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.889728</t>
+          <t>0.893491</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0.910355</t>
+          <t>0.933539</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0.985366</t>
+          <t>0.971154</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>0.980583</t>
+          <t>0.95283</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -3131,42 +3131,42 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0.583942</t>
+          <t>0.717949</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>0.606061</t>
+          <t>0.658824</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>0.56338</t>
+          <t>0.788732</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>0.861702</t>
+          <t>0.860215</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>0.964286</t>
+          <t>0.97561</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>0.778846</t>
+          <t>0.769231</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>0.880503</t>
+          <t>0.945946</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>0.864198</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
@@ -3176,44 +3176,44 @@
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>0.961783</t>
+          <t>0.993711</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>0.980519</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>0.94375</t>
+          <t>0.9875</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>0.872483</t>
+          <t>0.876254</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>0.783133</t>
+          <t>0.784431</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>0.984848</t>
+          <t>0.992424</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>cnn</t>
+          <t>adatrans</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>bert</t>
+          <t>elmo</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -3228,119 +3228,119 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.908133</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.885463</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0.931994</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>0.990196</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>0.990196</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>0.990196</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0.705882</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>0.658537</t>
+          <t>-</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>0.760563</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>-</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>0.96875</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>0.894231</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>0.927152</t>
+          <t>-</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>0.958904</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>0.897436</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>0.950311</t>
+          <t>-</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>0.944444</t>
+          <t>-</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>0.95625</t>
+          <t>-</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>0.872483</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>0.783133</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>0.984848</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>cnn</t>
+          <t>adatrans</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3365,27 +3365,27 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.896396</t>
+          <t>0.898638</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.871533</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0.92272</t>
+          <t>0.918083</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>0.975845</t>
+          <t>0.971154</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>0.961905</t>
+          <t>0.95283</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -3395,42 +3395,42 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.633803</t>
+          <t>0.643836</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>0.633803</t>
+          <t>0.626667</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>0.633803</t>
+          <t>0.661972</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>0.873239</t>
+          <t>0.891192</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>0.853211</t>
+          <t>0.966292</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>0.894231</t>
+          <t>0.826923</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>0.927152</t>
+          <t>0.903226</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>0.958904</t>
+          <t>0.909091</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
@@ -3440,17 +3440,17 @@
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>0.9875</t>
+          <t>0.990654</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>0.9875</t>
+          <t>0.987578</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>0.9875</t>
+          <t>0.99375</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
@@ -3472,7 +3472,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>cnn</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3492,47 +3492,47 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.8429</t>
+          <t>0.84639</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.824225</t>
+          <t>0.841221</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0.862442</t>
+          <t>0.851623</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.929293</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>0.959184</t>
+          <t>0.958333</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>0.921569</t>
+          <t>0.901961</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>0.307692</t>
+          <t>0.310345</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>0.391304</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -3542,27 +3542,27 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>0.908163</t>
+          <t>0.890052</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>0.967391</t>
+          <t>0.977011</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>0.855769</t>
+          <t>0.817308</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.938776</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>0.958333</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
@@ -3572,12 +3572,12 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>0.869081</t>
+          <t>0.899135</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>0.78392</t>
+          <t>0.834225</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
@@ -3587,12 +3587,12 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>0.873333</t>
+          <t>0.864686</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>0.779762</t>
+          <t>0.766082</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -3604,7 +3604,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>cnn</t>
+          <t>lstm</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3624,7 +3624,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -3741,12 +3741,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>bert</t>
+          <t>elmo</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>scaled</t>
+          <t>unscaled</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -3761,124 +3761,124 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.915408</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.895126</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0.936631</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>0.985366</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>0.980583</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>0.990196</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>0.705882</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>0.658537</t>
+          <t>-</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>0.760563</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>0.924623</t>
+          <t>-</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>0.968421</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>0.884615</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>0.945946</t>
+          <t>-</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>0.897436</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>0.9875</t>
+          <t>-</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>0.9875</t>
+          <t>-</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>0.9875</t>
+          <t>-</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>0.876254</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>0.784431</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>0.992424</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>adatrans</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>glove</t>
+          <t>bert</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>unscaled</t>
+          <t>scaled</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -3888,112 +3888,112 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.843152</t>
+          <t>0.907716</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.834848</t>
+          <t>0.888889</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0.851623</t>
+          <t>0.927357</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>0.929293</t>
+          <t>0.995122</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>0.958333</t>
+          <t>0.990291</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>0.901961</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>0.318584</t>
+          <t>0.643836</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>0.428571</t>
+          <t>0.626667</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>0.253521</t>
+          <t>0.661972</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>0.871795</t>
+          <t>0.924623</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>0.934066</t>
+          <t>0.968421</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>0.817308</t>
+          <t>0.884615</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>0.938776</t>
+          <t>0.927152</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.958904</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>0.884615</t>
+          <t>0.897436</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>0.878873</t>
+          <t>0.98452</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.97546</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>0.975</t>
+          <t>0.99375</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>0.870432</t>
+          <t>0.872483</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>0.775148</t>
+          <t>0.783133</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>0.992424</t>
+          <t>0.984848</t>
         </is>
       </c>
     </row>
@@ -4020,77 +4020,77 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0.91047</t>
+          <t>0.899924</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.894188</t>
+          <t>0.889728</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0.927357</t>
+          <t>0.910355</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0.980198</t>
+          <t>0.985366</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.980583</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0.970588</t>
+          <t>0.990196</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0.715232</t>
+          <t>0.583942</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>0.675</t>
+          <t>0.606061</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>0.760563</t>
+          <t>0.56338</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>0.888889</t>
+          <t>0.861702</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>0.988235</t>
+          <t>0.964286</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>0.807692</t>
+          <t>0.778846</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>0.869565</t>
+          <t>0.880503</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>0.843373</t>
+          <t>0.864198</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
@@ -4100,44 +4100,44 @@
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>0.948052</t>
+          <t>0.961783</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>0.986486</t>
+          <t>0.980519</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>0.9125</t>
+          <t>0.94375</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>0.876254</t>
+          <t>0.872483</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>0.784431</t>
+          <t>0.783133</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>0.992424</t>
+          <t>0.984848</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>cnn</t>
+          <t>adatrans</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>bert</t>
+          <t>elmo</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -4152,112 +4152,112 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.897805</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.879822</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0.916538</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>0.971154</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>0.95283</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0.990196</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0.643836</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>0.626667</t>
+          <t>-</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>0.661972</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>0.885417</t>
+          <t>-</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>0.965909</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>0.817308</t>
+          <t>-</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>0.903226</t>
+          <t>-</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>0.909091</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>0.897436</t>
+          <t>-</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>0.990654</t>
+          <t>-</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>0.987578</t>
+          <t>-</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>0.99375</t>
+          <t>-</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>0.876254</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>0.784431</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>0.992424</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -4269,12 +4269,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>glove</t>
+          <t>bert</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>unscaled</t>
+          <t>scaled</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -4284,112 +4284,112 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0.860625</t>
+          <t>0.908133</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.848348</t>
+          <t>0.885463</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0.873261</t>
+          <t>0.931994</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>0.897561</t>
+          <t>0.990196</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>0.893204</t>
+          <t>0.990196</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>0.901961</t>
+          <t>0.990196</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0.503817</t>
+          <t>0.705882</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.658537</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>0.464789</t>
+          <t>0.760563</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>0.857143</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>0.952941</t>
+          <t>0.96875</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>0.778846</t>
+          <t>0.894231</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>0.938776</t>
+          <t>0.927152</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.958904</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>0.884615</t>
+          <t>0.897436</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>0.920354</t>
+          <t>0.950311</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>0.871508</t>
+          <t>0.944444</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>0.975</t>
+          <t>0.95625</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>0.864686</t>
+          <t>0.872483</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>0.766082</t>
+          <t>0.783133</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>0.992424</t>
+          <t>0.984848</t>
         </is>
       </c>
     </row>
@@ -4401,12 +4401,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>glove</t>
+          <t>bert</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>unscaled</t>
+          <t>scaled</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -4416,107 +4416,107 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0.854503</t>
+          <t>0.896396</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.851227</t>
+          <t>0.871533</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0.857805</t>
+          <t>0.92272</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>0.929293</t>
+          <t>0.975845</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>0.958333</t>
+          <t>0.961905</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>0.901961</t>
+          <t>0.990196</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>0.396694</t>
+          <t>0.633803</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.633803</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>0.338028</t>
+          <t>0.633803</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>0.86631</t>
+          <t>0.873239</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>0.975904</t>
+          <t>0.853211</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>0.778846</t>
+          <t>0.894231</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>0.938776</t>
+          <t>0.927152</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.958904</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>0.884615</t>
+          <t>0.897436</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>0.914956</t>
+          <t>0.9875</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>0.861878</t>
+          <t>0.9875</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>0.975</t>
+          <t>0.9875</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>0.859016</t>
+          <t>0.876254</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>0.757225</t>
+          <t>0.784431</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
@@ -4528,17 +4528,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>adatrans</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>bert</t>
+          <t>glove</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>scaled</t>
+          <t>unscaled</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -4548,97 +4548,97 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0.910606</t>
+          <t>0.876249</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.893016</t>
+          <t>0.87156</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0.928903</t>
+          <t>0.880989</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>0.980769</t>
+          <t>0.934673</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>0.962264</t>
+          <t>0.958763</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
+          <t>0.911765</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>0.48855</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>0.533333</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>0.450704</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>0.884422</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>0.926316</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>0.846154</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>0.938776</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>0.643836</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>0.626667</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>0.661972</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>0.929293</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>0.978723</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
+      <c r="T32" t="inlineStr">
         <is>
           <t>0.884615</t>
         </is>
       </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>0.945946</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>0.897436</t>
-        </is>
-      </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>0.990654</t>
+          <t>0.957317</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>0.987578</t>
+          <t>0.934524</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>0.99375</t>
+          <t>0.98125</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
@@ -4660,7 +4660,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>cnn</t>
+          <t>lstm</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4670,7 +4670,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>scaled</t>
+          <t>unscaled</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -4685,17 +4685,17 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.859112</t>
+          <t>0.8429</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.85129</t>
+          <t>0.824225</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0.867079</t>
+          <t>0.862442</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -4715,42 +4715,42 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0.396694</t>
+          <t>0.307692</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.391304</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>0.338028</t>
+          <t>0.253521</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>0.882051</t>
+          <t>0.908163</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>0.945055</t>
+          <t>0.967391</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>0.826923</t>
+          <t>0.855769</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>0.938776</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.958333</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
@@ -4760,12 +4760,12 @@
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>0.909621</t>
+          <t>0.869081</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>0.852459</t>
+          <t>0.78392</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
@@ -4775,12 +4775,12 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>0.870432</t>
+          <t>0.873333</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>0.775148</t>
+          <t>0.779762</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
@@ -4792,7 +4792,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>cnn</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4924,12 +4924,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>cnn</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>glove</t>
+          <t>bert</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4944,62 +4944,62 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0.858663</t>
+          <t>0.915408</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.844544</t>
+          <t>0.895126</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0.873261</t>
+          <t>0.936631</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>0.929293</t>
+          <t>0.985366</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>0.958333</t>
+          <t>0.980583</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>0.901961</t>
+          <t>0.990196</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>0.393443</t>
+          <t>0.705882</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>0.470588</t>
+          <t>0.658537</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>0.338028</t>
+          <t>0.760563</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>0.901961</t>
+          <t>0.924623</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.968421</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
@@ -5009,42 +5009,42 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.945946</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>0.958333</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>0.884615</t>
+          <t>0.897436</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>0.906433</t>
+          <t>0.9875</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>0.851648</t>
+          <t>0.9875</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>0.96875</t>
+          <t>0.9875</t>
         </is>
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>0.873333</t>
+          <t>0.876254</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>0.779762</t>
+          <t>0.784431</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
@@ -5056,7 +5056,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>lstm</t>
+          <t>adatrans</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5066,7 +5066,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>scaled</t>
+          <t>unscaled</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -5188,130 +5188,2506 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>lstm</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>glove</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>unscaled</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>cosine</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.843152</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.834848</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>0.851623</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>0.929293</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>0.958333</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>0.901961</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>0.318584</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>0.428571</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>0.253521</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>0.871795</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>0.934066</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>0.817308</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>0.938776</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>0.884615</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>0.878873</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>0.975</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>0.870432</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>0.775148</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>0.992424</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>lstm</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>bert</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>unscaled</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>cosine</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.91047</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.894188</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>0.927357</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>0.980198</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>0.970588</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>0.715232</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>0.675</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>0.760563</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>0.888889</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>0.988235</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>0.807692</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>0.869565</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>0.843373</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>0.897436</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>0.948052</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>0.986486</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>0.9125</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>0.876254</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>0.784431</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>0.992424</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>adatrans</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>glove</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>scaled</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>cosine</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.861348</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.863354</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>0.859351</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>0.929293</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>0.958333</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>0.901961</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>0.496124</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>0.551724</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>0.450704</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>0.784091</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>0.958333</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>0.663462</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>0.938776</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>0.884615</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>0.933735</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>0.901163</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>0.96875</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>0.870432</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>0.775148</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>0.992424</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>adatrans</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>bert</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>unscaled</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>cosine</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.905944</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.882698</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>0.930448</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>0.965854</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>0.961165</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>0.970588</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>0.701299</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>0.650602</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>0.760563</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>0.858639</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>0.942529</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>0.788462</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>0.897436</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>0.897436</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>0.897436</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>0.961538</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>0.986842</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>0.9375</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>0.859016</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>0.757225</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>0.992424</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>adatrans</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>elmo</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>scaled</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>cosine</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>adatrans</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>elmo</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>scaled</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>cosine</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
           <t>cnn</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>bert</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>unscaled</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>cosine</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.897805</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.879822</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>0.916538</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>0.971154</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>0.95283</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>0.990196</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>0.643836</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>0.626667</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>0.661972</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>0.885417</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>0.965909</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>0.817308</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>0.903226</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>0.909091</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>0.897436</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>0.990654</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>0.987578</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>0.99375</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>0.876254</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>0.784431</t>
+        </is>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>0.992424</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>cnn</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>glove</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>unscaled</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>cosine</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.860625</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.848348</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>0.873261</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>0.897561</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>0.893204</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>0.901961</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>0.503817</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>0.464789</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>0.857143</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>0.952941</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>0.778846</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>0.938776</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>0.884615</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>0.920354</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>0.871508</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>0.975</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>0.864686</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>0.766082</t>
+        </is>
+      </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>0.992424</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>cnn</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>glove</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>unscaled</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>cosine</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.854503</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.851227</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>0.857805</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>0.929293</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>0.958333</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>0.901961</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>0.396694</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>0.338028</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>0.86631</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>0.975904</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>0.778846</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>0.938776</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>0.884615</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>0.914956</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>0.861878</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>0.975</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>0.859016</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>0.757225</t>
+        </is>
+      </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>0.992424</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>lstm</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>bert</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>scaled</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>cosine</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.910606</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.893016</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>0.928903</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>0.980769</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>0.962264</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>0.643836</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>0.626667</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>0.661972</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>0.929293</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>0.978723</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>0.884615</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>0.945946</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>0.897436</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>0.990654</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>0.987578</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>0.99375</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>0.876254</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>0.784431</t>
+        </is>
+      </c>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>0.992424</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>cnn</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>glove</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>scaled</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>cosine</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.859112</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.85129</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>0.867079</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>0.959184</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>0.921569</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>0.396694</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>0.338028</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>0.882051</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>0.945055</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>0.826923</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>0.938776</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>0.884615</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>0.909621</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>0.852459</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>0.975</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>0.870432</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>0.775148</t>
+        </is>
+      </c>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>0.992424</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>lstm</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>elmo</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>unscaled</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>cosine</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>adatrans</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>glove</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>unscaled</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>cosine</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.869296</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.869969</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>0.868624</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>0.934673</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>0.958763</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>0.911765</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>0.496124</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>0.551724</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>0.450704</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>0.832487</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>0.88172</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>0.788462</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>0.938776</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>0.884615</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>0.959752</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>0.95092</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>0.96875</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>0.870432</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>0.775148</t>
+        </is>
+      </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>0.992424</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>lstm</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>glove</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
         <is>
           <t>scaled</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>cosine</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z37" t="inlineStr">
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.858663</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.844544</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>0.873261</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>0.929293</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>0.958333</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>0.901961</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>0.393443</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>0.470588</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>0.338028</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>0.901961</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>0.884615</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>0.958333</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>0.884615</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>0.906433</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>0.851648</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>0.96875</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>0.873333</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>0.779762</t>
+        </is>
+      </c>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>0.992424</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>adatrans</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>glove</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>scaled</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>cosine</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.856269</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.847201</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>0.865533</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>0.896552</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>0.90099</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>0.892157</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>0.419355</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>0.490566</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>0.366197</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>0.885417</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>0.817308</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>0.938776</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>0.884615</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>0.920354</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>0.871508</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>0.975</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>0.870432</t>
+        </is>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>0.775148</t>
+        </is>
+      </c>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>0.992424</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>adatrans</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>bert</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>scaled</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>cosine</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.913469</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.890029</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>0.938176</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>0.971154</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>0.95283</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>0.990196</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>0.705882</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>0.658537</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>0.760563</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>0.925373</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>0.958763</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>0.894231</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>0.945946</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>0.897436</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>0.9875</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>0.9875</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>0.9875</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>0.876254</t>
+        </is>
+      </c>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>0.784431</t>
+        </is>
+      </c>
+      <c r="Z52" t="inlineStr">
+        <is>
+          <t>0.992424</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>lstm</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>elmo</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>scaled</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>cosine</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>adatrans</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>bert</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>unscaled</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>cosine</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.916353</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.894118</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>0.939722</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>0.971154</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>0.95283</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>0.990196</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>0.715232</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>0.675</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>0.760563</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>0.96875</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>0.894231</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>0.945946</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>0.897436</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>0.990654</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>0.987578</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>0.99375</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>0.876254</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>0.784431</t>
+        </is>
+      </c>
+      <c r="Z54" t="inlineStr">
+        <is>
+          <t>0.992424</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>cnn</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>elmo</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>scaled</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>cosine</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z55" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/output-2/drone-polysemi/cosine/evaluation_cosine.xlsx
+++ b/output-2/drone-polysemi/cosine/evaluation_cosine.xlsx
@@ -593,107 +593,107 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.887207</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.869436</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.905719</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.960396</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.95098</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.623188</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.641791</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.605634</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.90625</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.988636</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.836538</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.939597</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.985915</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.897436</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.966361</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.946108</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.9875</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.825397</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.710383</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.984848</t>
         </is>
       </c>
     </row>
@@ -857,107 +857,107 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.882923</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.853026</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.914992</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.935961</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.940594</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.931373</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.647399</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.54902</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.788732</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.88172</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.788462</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.921053</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.945946</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.897436</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.98452</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.97546</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.99375</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.855263</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.755814</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.984848</t>
         </is>
       </c>
     </row>
@@ -1121,107 +1121,107 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.911677</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.88389</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.941267</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.970874</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.961538</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.980392</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.724832</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.692308</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.760563</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.923077</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.939597</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.985915</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.897436</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.969325</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.951807</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.9875</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.846906</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.742857</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.984848</t>
         </is>
       </c>
     </row>
@@ -1385,107 +1385,107 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.876712</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.863568</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.890263</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.952381</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.925926</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.980392</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.680556</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.671233</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.690141</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.88172</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.788462</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.938776</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.884615</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.935065</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.972973</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.821317</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.700535</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.992424</t>
         </is>
       </c>
     </row>
@@ -1913,107 +1913,107 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.878856</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.856305</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.902628</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.946341</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.941748</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.95098</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.580247</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.516484</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.661972</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.861702</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.964286</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.778846</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.939597</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.985915</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.897436</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.972308</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.957576</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.9875</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.863787</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.769231</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.984848</t>
         </is>
       </c>
     </row>
@@ -2441,107 +2441,107 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.900672</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.871387</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.931994</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.960396</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.95098</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.690058</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.830986</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.89899</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.946809</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.855769</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.932432</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.985714</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.884615</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.9875</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.9875</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.9875</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.870432</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.775148</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.992424</t>
         </is>
       </c>
     </row>
@@ -2837,107 +2837,107 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.884323</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.871064</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.897991</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.945274</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.959596</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.931373</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.661972</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.661972</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.661972</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.860104</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.932584</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.798077</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.939597</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.985915</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.897436</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.971963</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.968944</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.975</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.83871</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.730337</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.984848</t>
         </is>
       </c>
     </row>
@@ -3233,107 +3233,107 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.908277</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.877522</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.941267</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.959596</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.989583</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.931373</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.834356</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.73913</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.957746</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.90625</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.988636</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.836538</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.939597</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.985915</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.897436</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.963415</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.940476</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.9875</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.83871</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.730337</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.984848</t>
         </is>
       </c>
     </row>
@@ -3629,107 +3629,107 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.890226</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.866764</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.914992</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.971154</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.95283</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.990196</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.643836</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.626667</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.661972</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.895833</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.977273</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.826923</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.939597</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.985915</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.897436</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.957576</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.929412</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.9875</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.852459</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.751445</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.984848</t>
         </is>
       </c>
     </row>
@@ -3761,107 +3761,107 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.907186</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.879536</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.936631</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.957346</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.926606</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.990196</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.766234</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.710843</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.830986</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.910995</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.836538</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.927152</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.958904</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.897436</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.957576</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.929412</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.9875</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.876254</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.784431</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.992424</t>
         </is>
       </c>
     </row>
@@ -4157,107 +4157,107 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.882615</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.849785</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.918083</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.909091</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.88785</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.931373</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.723926</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.641304</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.830986</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.888889</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.988235</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.807692</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.915033</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.933333</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.897436</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.954128</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.934132</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.975</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.852459</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.751445</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.984848</t>
         </is>
       </c>
     </row>
@@ -4817,107 +4817,107 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.886038</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.865782</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.907264</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.961905</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.935185</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.990196</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.692308</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.635294</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.760563</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.887701</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.798077</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.945946</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.897436</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.968944</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.962963</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.975</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.863787</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.769231</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.984848</t>
         </is>
       </c>
     </row>
@@ -5081,107 +5081,107 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.898876</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.872093</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.927357</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.936585</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.932039</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.941176</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.652778</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.643836</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.661972</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.970297</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.942308</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.915033</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.933333</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.897436</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.971963</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.968944</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.975</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.83871</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.730337</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.984848</t>
         </is>
       </c>
     </row>
@@ -5741,107 +5741,107 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.882308</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.867164</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.897991</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.936585</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.932039</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.941176</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.619718</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.619718</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.619718</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.887701</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.798077</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.927152</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.958904</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.897436</t>
         </is>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.957576</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.929412</t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.9875</t>
         </is>
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.860927</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.764706</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.984848</t>
         </is>
       </c>
     </row>
@@ -5873,107 +5873,107 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.869369</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.845255</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.8949</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.969388</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.931373</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.630872</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.602564</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.661972</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.824859</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.701923</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.933333</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.972222</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.897436</t>
         </is>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.954128</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.934132</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.975</t>
         </is>
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.8125</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.691489</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.984848</t>
         </is>
       </c>
     </row>
@@ -6665,107 +6665,107 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.891074</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.872593</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.910355</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.950495</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.941176</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.642857</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.652174</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.633803</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.896907</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.966667</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.836538</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.935897</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.935897</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.935897</t>
         </is>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.960725</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.929825</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.99375</t>
         </is>
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.860927</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.764706</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.984848</t>
         </is>
       </c>
     </row>
@@ -7325,107 +7325,107 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.864382</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.834532</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.896445</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.975369</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.980198</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.970588</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.509554</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.465116</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.56338</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.857143</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.913043</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.807692</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.945946</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.897436</t>
         </is>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.945455</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.917647</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.975</t>
         </is>
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.850649</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.744318</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.992424</t>
         </is>
       </c>
     </row>
@@ -7589,107 +7589,107 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.861727</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.851964</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.871716</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.941176</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.941176</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.941176</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.362069</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.466667</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.295775</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.913706</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.967742</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.865385</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.939597</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.985915</t>
         </is>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.897436</t>
         </is>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.925816</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.881356</t>
         </is>
       </c>
       <c r="W55" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.975</t>
         </is>
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.859016</t>
         </is>
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.757225</t>
         </is>
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.992424</t>
         </is>
       </c>
     </row>
